--- a/Data/Processing/2024-02-02/HCLTECH.xlsx
+++ b/Data/Processing/2024-02-02/HCLTECH.xlsx
@@ -1172,7 +1172,7 @@
         <v>1053.18</v>
       </c>
       <c r="E13">
-        <v>1060.89</v>
+        <v>1060.88</v>
       </c>
       <c r="F13">
         <v>1055.04</v>
@@ -1225,7 +1225,7 @@
         <v>1050.9</v>
       </c>
       <c r="F14">
-        <v>1060.89</v>
+        <v>1060.88</v>
       </c>
       <c r="G14">
         <v>1313278</v>
@@ -1243,7 +1243,7 @@
         <v>-1.62</v>
       </c>
       <c r="L14">
-        <v>5.03</v>
+        <v>5.04</v>
       </c>
       <c r="M14">
         <v>0.1900000000000002</v>
@@ -2416,7 +2416,7 @@
         <v>1004.88</v>
       </c>
       <c r="C38">
-        <v>1011.54</v>
+        <v>1011.53</v>
       </c>
       <c r="D38">
         <v>988.29</v>
@@ -2802,7 +2802,7 @@
         <v>2.26</v>
       </c>
       <c r="O45">
-        <v>1047.262272727273</v>
+        <v>1047.262045454545</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>1.59</v>
       </c>
       <c r="O46">
-        <v>1046.146136363636</v>
+        <v>1046.145909090909</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>2.39</v>
       </c>
       <c r="O47">
-        <v>1044.550227272727</v>
+        <v>1044.55</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>3.67</v>
       </c>
       <c r="O48">
-        <v>1042.690681818182</v>
+        <v>1042.690454545454</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>2.02</v>
       </c>
       <c r="O49">
-        <v>1040.936818181818</v>
+        <v>1040.936590909091</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>3.49</v>
       </c>
       <c r="O50">
-        <v>1038.610454545455</v>
+        <v>1038.610227272727</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>1.48</v>
       </c>
       <c r="O51">
-        <v>1036.921590909091</v>
+        <v>1036.921363636364</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>3.44</v>
       </c>
       <c r="O52">
-        <v>1035.537272727273</v>
+        <v>1035.537045454545</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>1.22</v>
       </c>
       <c r="O53">
-        <v>1033.994090909091</v>
+        <v>1033.993863636364</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>1.37</v>
       </c>
       <c r="O54">
-        <v>1032.277045454545</v>
+        <v>1032.276818181818</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>1.8</v>
       </c>
       <c r="O55">
-        <v>1030.924318181818</v>
+        <v>1030.924090909091</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>1.31</v>
       </c>
       <c r="O56">
-        <v>1030.096590909091</v>
+        <v>1030.096363636364</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>1046.57</v>
       </c>
       <c r="C65">
-        <v>1056.67</v>
+        <v>1056.68</v>
       </c>
       <c r="D65">
         <v>1044.54</v>
@@ -4416,7 +4416,7 @@
         <v>1091.88</v>
       </c>
       <c r="C78">
-        <v>1106.39</v>
+        <v>1106.38</v>
       </c>
       <c r="D78">
         <v>1090.96</v>
@@ -4502,7 +4502,7 @@
         <v>1.87</v>
       </c>
       <c r="O79">
-        <v>1037.998863636364</v>
+        <v>1037.998863636363</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>2.65</v>
       </c>
       <c r="O87">
-        <v>1051.125454545454</v>
+        <v>1051.125454545455</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>1.96</v>
       </c>
       <c r="O131">
-        <v>1113.092045454546</v>
+        <v>1113.092045454545</v>
       </c>
       <c r="P131">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>1.88</v>
       </c>
       <c r="O143">
-        <v>1119.469545454545</v>
+        <v>1119.469545454546</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>1.33</v>
       </c>
       <c r="O146">
-        <v>1122.222045454546</v>
+        <v>1122.222045454545</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>1.45</v>
       </c>
       <c r="O158">
-        <v>1158.777954545454</v>
+        <v>1158.777954545455</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -9122,7 +9122,7 @@
         <v>1178.9</v>
       </c>
       <c r="E172">
-        <v>1225.09</v>
+        <v>1225.08</v>
       </c>
       <c r="F172">
         <v>1193.72</v>
@@ -9134,7 +9134,7 @@
         <v>35</v>
       </c>
       <c r="I172">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="J172">
         <v>4.38</v>
@@ -9146,13 +9146,13 @@
         <v>-12.43</v>
       </c>
       <c r="M172">
-        <v>-0.7999999999999998</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="N172">
         <v>4.78</v>
       </c>
       <c r="O172">
-        <v>1196.083409090909</v>
+        <v>1196.083181818182</v>
       </c>
       <c r="P172">
         <v>1</v>
@@ -9175,7 +9175,7 @@
         <v>1239.47</v>
       </c>
       <c r="F173">
-        <v>1225.09</v>
+        <v>1225.08</v>
       </c>
       <c r="G173">
         <v>2527113</v>
@@ -9193,7 +9193,7 @@
         <v>-0.21</v>
       </c>
       <c r="L173">
-        <v>6.92</v>
+        <v>6.93</v>
       </c>
       <c r="M173">
         <v>-0.67</v>
@@ -9202,7 +9202,7 @@
         <v>1.5</v>
       </c>
       <c r="O173">
-        <v>1199.106136363637</v>
+        <v>1199.105909090909</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0.63</v>
       </c>
       <c r="O174">
-        <v>1201.449318181818</v>
+        <v>1201.449090909091</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>1.1</v>
       </c>
       <c r="O175">
-        <v>1203.631818181818</v>
+        <v>1203.631590909091</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>0.78</v>
       </c>
       <c r="O176">
-        <v>1205.631363636364</v>
+        <v>1205.631136363636</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>1.27</v>
       </c>
       <c r="O177">
-        <v>1207.713636363636</v>
+        <v>1207.713409090909</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -9452,7 +9452,7 @@
         <v>2.26</v>
       </c>
       <c r="O178">
-        <v>1209.371363636364</v>
+        <v>1209.371136363636</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>2.24</v>
       </c>
       <c r="O179">
-        <v>1210.734545454545</v>
+        <v>1210.734318181818</v>
       </c>
       <c r="P179">
         <v>1</v>
@@ -9552,7 +9552,7 @@
         <v>2.15</v>
       </c>
       <c r="O180">
-        <v>1212.155</v>
+        <v>1212.154772727273</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>2.95</v>
       </c>
       <c r="O181">
-        <v>1214.334772727273</v>
+        <v>1214.334545454545</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>1.48</v>
       </c>
       <c r="O182">
-        <v>1216.675681818182</v>
+        <v>1216.675454545454</v>
       </c>
       <c r="P182">
         <v>0</v>
@@ -9702,7 +9702,7 @@
         <v>1.82</v>
       </c>
       <c r="O183">
-        <v>1219.651818181818</v>
+        <v>1219.651590909091</v>
       </c>
       <c r="P183">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>2.4</v>
       </c>
       <c r="O184">
-        <v>1222.412727272727</v>
+        <v>1222.4125</v>
       </c>
       <c r="P184">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0.79</v>
       </c>
       <c r="O185">
-        <v>1225.250909090909</v>
+        <v>1225.250681818182</v>
       </c>
       <c r="P185">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>1.89</v>
       </c>
       <c r="O186">
-        <v>1227.642045454545</v>
+        <v>1227.641818181818</v>
       </c>
       <c r="P186">
         <v>0</v>
@@ -9902,7 +9902,7 @@
         <v>1.12</v>
       </c>
       <c r="O187">
-        <v>1230.073863636364</v>
+        <v>1230.073636363636</v>
       </c>
       <c r="P187">
         <v>0</v>
@@ -9952,7 +9952,7 @@
         <v>0.83</v>
       </c>
       <c r="O188">
-        <v>1232.297954545454</v>
+        <v>1232.297727272727</v>
       </c>
       <c r="P188">
         <v>0</v>
@@ -10002,7 +10002,7 @@
         <v>1.16</v>
       </c>
       <c r="O189">
-        <v>1233.345909090909</v>
+        <v>1233.345681818182</v>
       </c>
       <c r="P189">
         <v>0</v>
@@ -10052,7 +10052,7 @@
         <v>1.1</v>
       </c>
       <c r="O190">
-        <v>1234.322954545454</v>
+        <v>1234.322727272727</v>
       </c>
       <c r="P190">
         <v>0</v>
@@ -10102,7 +10102,7 @@
         <v>1.61</v>
       </c>
       <c r="O191">
-        <v>1235.023409090909</v>
+        <v>1235.023181818182</v>
       </c>
       <c r="P191">
         <v>1</v>
@@ -10152,7 +10152,7 @@
         <v>0.82</v>
       </c>
       <c r="O192">
-        <v>1235.445909090909</v>
+        <v>1235.445681818182</v>
       </c>
       <c r="P192">
         <v>1</v>
@@ -10202,7 +10202,7 @@
         <v>1.14</v>
       </c>
       <c r="O193">
-        <v>1236.040227272727</v>
+        <v>1236.04</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -10252,7 +10252,7 @@
         <v>3.11</v>
       </c>
       <c r="O194">
-        <v>1236.972045454546</v>
+        <v>1236.971818181818</v>
       </c>
       <c r="P194">
         <v>0</v>
@@ -10302,7 +10302,7 @@
         <v>1.47</v>
       </c>
       <c r="O195">
-        <v>1237.842727272727</v>
+        <v>1237.8425</v>
       </c>
       <c r="P195">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>1.35</v>
       </c>
       <c r="O196">
-        <v>1239.235454545455</v>
+        <v>1239.235227272727</v>
       </c>
       <c r="P196">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>1.06</v>
       </c>
       <c r="O197">
-        <v>1240.469772727273</v>
+        <v>1240.469545454546</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>1.16</v>
       </c>
       <c r="O198">
-        <v>1241.307954545455</v>
+        <v>1241.307727272727</v>
       </c>
       <c r="P198">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>0.72</v>
       </c>
       <c r="O199">
-        <v>1242.121590909091</v>
+        <v>1242.121363636364</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -10552,7 +10552,7 @@
         <v>2.03</v>
       </c>
       <c r="O200">
-        <v>1242.748409090909</v>
+        <v>1242.748181818182</v>
       </c>
       <c r="P200">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>1.88</v>
       </c>
       <c r="O201">
-        <v>1243.884318181818</v>
+        <v>1243.884090909091</v>
       </c>
       <c r="P201">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>1.31</v>
       </c>
       <c r="O202">
-        <v>1245.502727272727</v>
+        <v>1245.5025</v>
       </c>
       <c r="P202">
         <v>0</v>
@@ -10702,7 +10702,7 @@
         <v>1.28</v>
       </c>
       <c r="O203">
-        <v>1247.503863636364</v>
+        <v>1247.503636363636</v>
       </c>
       <c r="P203">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>1.56</v>
       </c>
       <c r="O204">
-        <v>1249.455454545454</v>
+        <v>1249.455227272727</v>
       </c>
       <c r="P204">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>1.41</v>
       </c>
       <c r="O205">
-        <v>1251.442727272727</v>
+        <v>1251.4425</v>
       </c>
       <c r="P205">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>2.87</v>
       </c>
       <c r="O206">
-        <v>1253.399090909091</v>
+        <v>1253.398863636364</v>
       </c>
       <c r="P206">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>1.54</v>
       </c>
       <c r="O207">
-        <v>1255.781590909091</v>
+        <v>1255.781363636364</v>
       </c>
       <c r="P207">
         <v>0</v>
@@ -10952,7 +10952,7 @@
         <v>0.88</v>
       </c>
       <c r="O208">
-        <v>1258.042727272727</v>
+        <v>1258.0425</v>
       </c>
       <c r="P208">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>3.07</v>
       </c>
       <c r="O209">
-        <v>1261.092954545454</v>
+        <v>1261.092727272727</v>
       </c>
       <c r="P209">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>1.24</v>
       </c>
       <c r="O210">
-        <v>1264.484772727273</v>
+        <v>1264.484545454545</v>
       </c>
       <c r="P210">
         <v>0</v>
@@ -11102,7 +11102,7 @@
         <v>1.23</v>
       </c>
       <c r="O211">
-        <v>1267.826818181818</v>
+        <v>1267.826590909091</v>
       </c>
       <c r="P211">
         <v>0</v>
@@ -11152,7 +11152,7 @@
         <v>1.87</v>
       </c>
       <c r="O212">
-        <v>1270.768409090909</v>
+        <v>1270.768181818182</v>
       </c>
       <c r="P212">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>2.68</v>
       </c>
       <c r="O213">
-        <v>1274.455681818182</v>
+        <v>1274.455454545455</v>
       </c>
       <c r="P213">
         <v>0</v>
@@ -11252,7 +11252,7 @@
         <v>5.27</v>
       </c>
       <c r="O214">
-        <v>1280.218636363637</v>
+        <v>1280.218409090909</v>
       </c>
       <c r="P214">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>1.94</v>
       </c>
       <c r="O215">
-        <v>1286.757272727273</v>
+        <v>1286.757045454546</v>
       </c>
       <c r="P215">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>1.85</v>
       </c>
       <c r="O225">
-        <v>1334.427045454546</v>
+        <v>1334.427045454545</v>
       </c>
       <c r="P225">
         <v>0</v>
